--- a/data/trans_orig/IP11CS1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11CS1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A427FA14-0AC4-4655-9624-76A5F5BD9703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B2B970B-7A91-4112-8D7C-E9D626088774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DE562909-D07E-4228-A668-3B07CCE8F49E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BF553597-D464-4258-AD2F-1D8CB05D1085}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,30 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Ser ingresado en un hospital o clínica</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
     <t>Acudir a un servicio de urgencias</t>
   </si>
   <si>
@@ -116,9 +140,6 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>28,66%</t>
   </si>
   <si>
@@ -146,9 +167,6 @@
     <t>27,61%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
     <t>52,96%</t>
   </si>
   <si>
@@ -161,30 +179,123 @@
     <t>46,16%</t>
   </si>
   <si>
-    <t>Ser ingresado en un hospital o clínica</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
     <t>70,7%</t>
   </si>
   <si>
@@ -263,115 +374,28 @@
     <t>27,55%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>63,68%</t>
@@ -455,33 +479,33 @@
     <t>28,35%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
     <t>Menores según consecuencia del accidente en 2012 (Tasa respuesta: 8,58%)</t>
   </si>
   <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
     <t>57,01%</t>
   </si>
   <si>
@@ -545,28 +569,124 @@
     <t>59,97%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>65,18%</t>
@@ -647,124 +767,28 @@
     <t>24,16%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -845,33 +869,15 @@
     <t>38,15%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
     <t>Menores según consecuencia del accidente en 2015 (Tasa respuesta: 4,42%)</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>75,61%</t>
   </si>
   <si>
@@ -902,9 +908,6 @@
     <t>37,03%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>5,95%</t>
   </si>
   <si>
@@ -923,7 +926,94 @@
     <t>36,13%</t>
   </si>
   <si>
-    <t>14,51%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
   </si>
   <si>
     <t>78,39%</t>
@@ -980,94 +1070,25 @@
     <t>22,6%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>74,63%</t>
@@ -1139,30 +1160,24 @@
     <t>19,41%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
     <t>Menores según consecuencia del accidente en 2023 (Tasa respuesta: 2,86%)</t>
   </si>
   <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
     <t>75,89%</t>
   </si>
   <si>
@@ -1190,22 +1205,82 @@
     <t>60,45%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>89,51%</t>
@@ -1259,79 +1334,25 @@
     <t>23,85%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>81,7%</t>
@@ -1392,27 +1413,6 @@
   </si>
   <si>
     <t>17,62%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +1804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBED74D-DC45-43C7-AD98-237FE55FD39F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74517AFE-A4EB-4D13-B7D4-6E540E2FACFD}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1922,10 +1922,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>7372</v>
+        <v>488</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1937,184 +1937,184 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>7098</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>488</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>22</v>
-      </c>
-      <c r="N4" s="7">
-        <v>14469</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7372</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2856</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7098</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>580</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>22</v>
+      </c>
+      <c r="N5" s="7">
+        <v>14469</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3436</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2856</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4556</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>580</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
+      <c r="M6" s="7">
         <v>5</v>
       </c>
-      <c r="I6" s="7">
-        <v>2929</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="N6" s="7">
+        <v>3436</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="M6" s="7">
-        <v>12</v>
-      </c>
-      <c r="N6" s="7">
-        <v>7485</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4556</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>488</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2929</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>12</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7485</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>488</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>45</v>
@@ -2179,202 +2179,202 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>13810</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H9" s="7">
-        <v>13</v>
-      </c>
-      <c r="I9" s="7">
-        <v>8515</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="7">
-        <v>34</v>
-      </c>
-      <c r="N9" s="7">
-        <v>22325</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>2160</v>
+        <v>8444</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5796</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
+        <v>21</v>
+      </c>
+      <c r="N10" s="7">
+        <v>14240</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2130</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="7">
-        <v>6</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4290</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1493</v>
+        <v>1873</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>712</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2586</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4100</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" s="7">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5593</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>2069</v>
+        <v>1404</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2708</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="7">
+        <v>6</v>
+      </c>
+      <c r="N12" s="7">
+        <v>4112</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>737</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="7">
-        <v>4</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2806</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,10 +2383,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>19532</v>
+        <v>11721</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>46</v>
@@ -2398,10 +2398,10 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>15482</v>
+        <v>9216</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>46</v>
@@ -2413,10 +2413,10 @@
         <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>35014</v>
+        <v>20937</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>46</v>
@@ -2430,205 +2430,205 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>8444</v>
+        <v>2069</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>737</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2806</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5796</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="7">
-        <v>21</v>
-      </c>
-      <c r="N14" s="7">
-        <v>14240</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D15" s="7">
-        <v>1873</v>
+        <v>13810</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="7">
+        <v>13</v>
+      </c>
+      <c r="I15" s="7">
+        <v>8515</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="7">
+        <v>34</v>
+      </c>
+      <c r="N15" s="7">
+        <v>22325</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>712</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="7">
-        <v>4</v>
-      </c>
-      <c r="N15" s="7">
-        <v>2586</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>1404</v>
+        <v>2160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>2708</v>
+        <v>2130</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>4112</v>
+        <v>4290</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1493</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4100</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="7">
+        <v>8</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5593</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>110</v>
@@ -2640,10 +2640,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D18" s="7">
-        <v>11721</v>
+        <v>19532</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>46</v>
@@ -2655,10 +2655,10 @@
         <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I18" s="7">
-        <v>9216</v>
+        <v>15482</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>46</v>
@@ -2670,10 +2670,10 @@
         <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N18" s="7">
-        <v>20937</v>
+        <v>35014</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>46</v>
@@ -2693,10 +2693,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>29626</v>
+        <v>2557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>111</v>
@@ -2708,178 +2708,178 @@
         <v>113</v>
       </c>
       <c r="H19" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>21408</v>
+        <v>737</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3294</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M19" s="7">
-        <v>77</v>
-      </c>
-      <c r="N19" s="7">
-        <v>51034</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7">
-        <v>6890</v>
+        <v>29626</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>32</v>
+      </c>
+      <c r="I20" s="7">
+        <v>21408</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3422</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>77</v>
+      </c>
+      <c r="N20" s="7">
+        <v>51034</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M20" s="7">
-        <v>15</v>
-      </c>
-      <c r="N20" s="7">
-        <v>10312</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>7452</v>
+        <v>6890</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>5</v>
+      </c>
+      <c r="I21" s="7">
+        <v>3422</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="7">
+      <c r="K21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" s="7">
         <v>15</v>
       </c>
-      <c r="I21" s="7">
-        <v>9737</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="N21" s="7">
+        <v>10312</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M21" s="7">
-        <v>26</v>
-      </c>
-      <c r="N21" s="7">
-        <v>17189</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>2557</v>
+        <v>7452</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7">
+        <v>9737</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>737</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>142</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="N22" s="7">
-        <v>3294</v>
+        <v>17189</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>143</v>
@@ -2958,7 +2958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092AA85C-47D0-48A7-A8C4-0C89A545CA7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A7E568-8AB8-4096-BA85-2088A316C27E}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3076,178 +3076,178 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>10300</v>
+        <v>675</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1809</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3795</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2485</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="M4" s="7">
-        <v>21</v>
-      </c>
-      <c r="N4" s="7">
-        <v>14095</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>14095</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>7093</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>6480</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M6" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>13573</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>675</v>
+        <v>7093</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>169</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>1809</v>
+        <v>6480</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>170</v>
@@ -3259,10 +3259,10 @@
         <v>172</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>2485</v>
+        <v>13573</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>173</v>
@@ -3333,10 +3333,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>21538</v>
+        <v>2608</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>176</v>
@@ -3348,187 +3348,187 @@
         <v>178</v>
       </c>
       <c r="H9" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>10511</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2608</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M9" s="7">
-        <v>45</v>
-      </c>
-      <c r="N9" s="7">
-        <v>32049</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>5196</v>
+        <v>9933</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11097</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1306</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>30</v>
+      </c>
+      <c r="N10" s="7">
+        <v>21030</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="7">
-        <v>10</v>
-      </c>
-      <c r="N10" s="7">
-        <v>6502</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>3907</v>
+        <v>2162</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>930</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3344</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3093</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="M11" s="7">
-        <v>11</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7251</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>2405</v>
+        <v>7558</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="7">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7">
+        <v>11157</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1284</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>26</v>
+      </c>
+      <c r="N12" s="7">
+        <v>18715</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3689</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,10 +3537,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>33047</v>
+        <v>22262</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>46</v>
@@ -3552,10 +3552,10 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>16445</v>
+        <v>23184</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>46</v>
@@ -3567,10 +3567,10 @@
         <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>49492</v>
+        <v>45446</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>46</v>
@@ -3584,199 +3584,199 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>9933</v>
+        <v>2405</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1284</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H14" s="7">
-        <v>16</v>
-      </c>
-      <c r="I14" s="7">
-        <v>11097</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3689</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="M14" s="7">
-        <v>30</v>
-      </c>
-      <c r="N14" s="7">
-        <v>21030</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7">
-        <v>2162</v>
+        <v>21538</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="7">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7">
+        <v>10511</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>930</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>45</v>
+      </c>
+      <c r="N15" s="7">
+        <v>32049</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M15" s="7">
-        <v>4</v>
-      </c>
-      <c r="N15" s="7">
-        <v>3093</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>7558</v>
+        <v>5196</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1306</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11157</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6502</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="M16" s="7">
-        <v>26</v>
-      </c>
-      <c r="N16" s="7">
-        <v>18715</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>2608</v>
+        <v>3907</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3344</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>238</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>2608</v>
+        <v>7251</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>239</v>
@@ -3794,10 +3794,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7">
-        <v>22262</v>
+        <v>33047</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>46</v>
@@ -3809,10 +3809,10 @@
         <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I18" s="7">
-        <v>23184</v>
+        <v>16445</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>46</v>
@@ -3824,10 +3824,10 @@
         <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N18" s="7">
-        <v>45446</v>
+        <v>49492</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>46</v>
@@ -3847,10 +3847,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>41772</v>
+        <v>5689</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>242</v>
@@ -3862,61 +3862,61 @@
         <v>244</v>
       </c>
       <c r="H19" s="7">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>25402</v>
+        <v>3093</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>12</v>
+      </c>
+      <c r="N19" s="7">
+        <v>8782</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M19" s="7">
-        <v>96</v>
-      </c>
-      <c r="N19" s="7">
-        <v>67174</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7">
-        <v>7359</v>
+        <v>41772</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>252</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I20" s="7">
-        <v>2236</v>
+        <v>25402</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>253</v>
@@ -3928,10 +3928,10 @@
         <v>255</v>
       </c>
       <c r="M20" s="7">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="N20" s="7">
-        <v>9595</v>
+        <v>67174</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>256</v>
@@ -3946,94 +3946,94 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D21" s="7">
-        <v>18558</v>
+        <v>7359</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>259</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2236</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H21" s="7">
-        <v>30</v>
-      </c>
-      <c r="I21" s="7">
-        <v>20980</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>14</v>
+      </c>
+      <c r="N21" s="7">
+        <v>9595</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="M21" s="7">
-        <v>58</v>
-      </c>
-      <c r="N21" s="7">
-        <v>39538</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D22" s="7">
-        <v>5689</v>
+        <v>18558</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>30</v>
+      </c>
+      <c r="I22" s="7">
+        <v>20980</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
-        <v>3093</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="N22" s="7">
-        <v>8782</v>
+        <v>39538</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>273</v>
@@ -4112,7 +4112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D38A30-A52B-419E-804A-74F87549E741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7F5B3F-24D1-4A66-8593-9ABA5603BB6B}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4230,121 +4230,121 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5945</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2791</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="7">
-        <v>8736</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>634</v>
+        <v>5945</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2791</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="7">
+        <v>14</v>
+      </c>
+      <c r="N5" s="7">
+        <v>8736</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>634</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1284</v>
+        <v>634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4353,49 +4353,49 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>1284</v>
+        <v>634</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4404,28 +4404,28 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,46 +4487,46 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>17332</v>
+        <v>626</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>295</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1096</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H9" s="7">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7">
-        <v>10373</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1722</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M9" s="7">
-        <v>39</v>
-      </c>
-      <c r="N9" s="7">
-        <v>27704</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>301</v>
@@ -4535,154 +4535,154 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>739</v>
+        <v>7116</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>7726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>739</v>
+        <v>14842</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>2991</v>
+        <v>977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="7">
-        <v>738</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M11" s="7">
-        <v>5</v>
-      </c>
       <c r="N11" s="7">
-        <v>3729</v>
+        <v>977</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>1047</v>
+        <v>2035</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>1692</v>
+        <v>2035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,40 +4691,40 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10754</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="7">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7">
+        <v>8822</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="7">
         <v>30</v>
       </c>
-      <c r="D13" s="7">
-        <v>22109</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11756</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="7">
-        <v>47</v>
-      </c>
       <c r="N13" s="7">
-        <v>33864</v>
+        <v>19576</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>46</v>
@@ -4738,52 +4738,52 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>7116</v>
+        <v>1047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>7726</v>
+        <v>644</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>321</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="M14" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>14842</v>
+        <v>1692</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>324</v>
@@ -4792,73 +4792,73 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7">
-        <v>977</v>
+        <v>17332</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>325</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>10373</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>43</v>
+        <v>329</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="N15" s="7">
-        <v>977</v>
+        <v>27704</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>2035</v>
+        <v>739</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4867,25 +4867,25 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>2035</v>
+        <v>739</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>335</v>
@@ -4894,49 +4894,49 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>626</v>
+        <v>2991</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1096</v>
+        <v>738</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>1722</v>
+        <v>3729</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>342</v>
@@ -4948,10 +4948,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>10754</v>
+        <v>22109</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>46</v>
@@ -4963,10 +4963,10 @@
         <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>8822</v>
+        <v>11756</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>46</v>
@@ -4978,10 +4978,10 @@
         <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N18" s="7">
-        <v>19576</v>
+        <v>33864</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>46</v>
@@ -5001,91 +5001,91 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>30392</v>
+        <v>1673</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>343</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1740</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H19" s="7">
-        <v>32</v>
-      </c>
-      <c r="I19" s="7">
-        <v>20890</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3413</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="M19" s="7">
-        <v>76</v>
-      </c>
-      <c r="N19" s="7">
-        <v>51282</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7">
-        <v>2350</v>
+        <v>30392</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>32</v>
+      </c>
+      <c r="I20" s="7">
+        <v>20890</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>355</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="N20" s="7">
-        <v>2350</v>
+        <v>51282</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>356</v>
@@ -5100,43 +5100,43 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>6309</v>
+        <v>2350</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>359</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>207</v>
+        <v>360</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>738</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>361</v>
+        <v>12</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>362</v>
       </c>
       <c r="M21" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>7048</v>
+        <v>2350</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>363</v>
@@ -5151,43 +5151,43 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>1673</v>
+        <v>6309</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>366</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>367</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>1740</v>
+        <v>738</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>207</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>369</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>3413</v>
+        <v>7048</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>370</v>
@@ -5266,7 +5266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F413FAA-F30B-4E8F-B037-1E60FC5ABC0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDC01B3-0D2E-4666-A27D-A365C19EF678}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5384,106 +5384,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1856</v>
+        <v>589</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>374</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>280</v>
-      </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2835</v>
+        <v>590</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>377</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1856</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>379</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>406</v>
+        <v>978</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>406</v>
+        <v>2835</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>383</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -5492,64 +5492,64 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>385</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>383</v>
+        <v>282</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>385</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5558,25 +5558,25 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>387</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>388</v>
@@ -5641,133 +5641,133 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>10266</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>428</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H9" s="7">
-        <v>11</v>
-      </c>
-      <c r="I9" s="7">
-        <v>7611</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>428</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="M9" s="7">
-        <v>24</v>
-      </c>
-      <c r="N9" s="7">
-        <v>17877</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>6186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>393</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>394</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3342</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>847</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>397</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>847</v>
+        <v>9528</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>398</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>688</v>
+        <v>2309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>895</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>402</v>
+        <v>12</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>403</v>
@@ -5776,67 +5776,67 @@
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1583</v>
+        <v>2309</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>404</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>405</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>406</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1238</v>
+        <v>1455</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1455</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="M12" s="7">
-        <v>3</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1753</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,10 +5845,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>11469</v>
+        <v>8495</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>46</v>
@@ -5860,10 +5860,10 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>10591</v>
+        <v>5226</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>46</v>
@@ -5875,10 +5875,10 @@
         <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>22060</v>
+        <v>13721</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>46</v>
@@ -5892,112 +5892,112 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>6186</v>
+        <v>515</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1238</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3342</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1753</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="M14" s="7">
-        <v>13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9528</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7">
-        <v>2309</v>
+        <v>10266</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H15" s="7">
+        <v>11</v>
+      </c>
+      <c r="I15" s="7">
+        <v>7611</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M15" s="7">
+        <v>24</v>
+      </c>
+      <c r="N15" s="7">
+        <v>17877</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="M15" s="7">
-        <v>2</v>
-      </c>
-      <c r="N15" s="7">
-        <v>2309</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -6006,91 +6006,91 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>847</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>847</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1455</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="M16" s="7">
-        <v>2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1455</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>25</v>
+        <v>425</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
+        <v>895</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>428</v>
+        <v>1583</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>429</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>430</v>
@@ -6102,10 +6102,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>8495</v>
+        <v>11469</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>46</v>
@@ -6117,10 +6117,10 @@
         <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>5226</v>
+        <v>10591</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>46</v>
@@ -6132,10 +6132,10 @@
         <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N18" s="7">
-        <v>13721</v>
+        <v>22060</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>46</v>
@@ -6155,169 +6155,169 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>18308</v>
+        <v>1105</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>431</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1667</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="H19" s="7">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7">
-        <v>11932</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2772</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="M19" s="7">
-        <v>42</v>
-      </c>
-      <c r="N19" s="7">
-        <v>30240</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>2309</v>
+        <v>18308</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>18</v>
+      </c>
+      <c r="I20" s="7">
+        <v>11932</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1252</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>25</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="N20" s="7">
-        <v>3561</v>
+        <v>30240</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>688</v>
+        <v>2309</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>236</v>
+        <v>447</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>2350</v>
+        <v>1252</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>446</v>
+        <v>208</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>447</v>
+        <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>3038</v>
+        <v>3561</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>256</v>
+        <v>450</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>449</v>
+        <v>368</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1105</v>
+        <v>688</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>451</v>
+        <v>177</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>452</v>
@@ -6326,25 +6326,25 @@
         <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>1667</v>
+        <v>2350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>2772</v>
+        <v>3038</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>455</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>456</v>

--- a/data/trans_orig/IP11CS1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11CS1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B2B970B-7A91-4112-8D7C-E9D626088774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D61D883-899D-427D-9244-EFB8AE7C88B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BF553597-D464-4258-AD2F-1D8CB05D1085}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2FE9D4F-51A2-426D-AB7F-EE832EB0A675}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="515">
   <si>
     <t>Menores según consecuencia del accidente en 2007 (Tasa respuesta: 5,85%)</t>
   </si>
@@ -68,1351 +68,1522 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>No fue necesaria ninguna atención sanitaria</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>Consultar a un médico o enfermera</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>Acudir a un servicio de urgencias</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>Ser ingresado en un hospital o clínica</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>Acudir a un servicio de urgencias</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>Consultar a un médico o enfermera</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>No fue necesaria ninguna atención sanitaria</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2012 (Tasa respuesta: 8,58%)</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2015 (Tasa respuesta: 4,42%)</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2012 (Tasa respuesta: 8,58%)</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2015 (Tasa respuesta: 4,42%)</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>2,48%</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1594,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1519,39 +1690,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1603,7 +1774,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1714,13 +1885,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1729,6 +1893,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1793,19 +1964,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74517AFE-A4EB-4D13-B7D4-6E540E2FACFD}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB70CC3-B7E8-4746-B73D-860BC40020BD}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1922,10 +2113,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>488</v>
+        <v>2511</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1937,187 +2128,187 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1813</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>488</v>
+        <v>4324</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>7372</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>7098</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="7">
-        <v>14469</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4038</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2856</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1716</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>580</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>9</v>
+      </c>
+      <c r="N6" s="7">
+        <v>5753</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="7">
-        <v>5</v>
-      </c>
-      <c r="N6" s="7">
-        <v>3436</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>488</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="7">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7">
-        <v>4556</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>488</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2929</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="7">
-        <v>12</v>
-      </c>
-      <c r="N7" s="7">
-        <v>7485</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,144 +2317,144 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>15272</v>
+        <v>7037</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3529</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="7">
         <v>17</v>
       </c>
-      <c r="I8" s="7">
-        <v>10606</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>40</v>
-      </c>
       <c r="N8" s="7">
-        <v>25878</v>
+        <v>10565</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>3449</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3824</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>11</v>
+      </c>
+      <c r="N9" s="7">
+        <v>7273</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>8444</v>
+        <v>4201</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>5796</v>
+        <v>1292</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>14240</v>
+        <v>5493</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2278,13 +2469,13 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>1873</v>
+        <v>8411</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2296,85 +2487,85 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>712</v>
+        <v>8247</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N11" s="7">
-        <v>2586</v>
+        <v>16658</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>1404</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>69</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>2708</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4112</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,255 +2574,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>11721</v>
+        <v>16060</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>9216</v>
+        <v>13363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>20937</v>
+        <v>29423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>813</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
-        <v>2069</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
       <c r="I14" s="7">
-        <v>737</v>
+        <v>1971</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>2806</v>
+        <v>2784</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>13810</v>
+        <v>1224</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>806</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2030</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="7">
-        <v>13</v>
-      </c>
-      <c r="I15" s="7">
-        <v>8515</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="7">
-        <v>34</v>
-      </c>
-      <c r="N15" s="7">
-        <v>22325</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>2160</v>
+        <v>7598</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6017</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="7">
+        <v>20</v>
+      </c>
+      <c r="N16" s="7">
+        <v>13615</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2130</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4290</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1493</v>
+        <v>1425</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>5593</v>
+        <v>1425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,255 +2831,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11060</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="7">
+        <v>13</v>
+      </c>
+      <c r="I18" s="7">
+        <v>8794</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="7">
         <v>29</v>
       </c>
-      <c r="D18" s="7">
-        <v>19532</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="7">
-        <v>23</v>
-      </c>
-      <c r="I18" s="7">
-        <v>15482</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="7">
-        <v>52</v>
-      </c>
       <c r="N18" s="7">
-        <v>35014</v>
+        <v>19854</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>680</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2129</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="7">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
-        <v>2557</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>737</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
       <c r="N19" s="7">
-        <v>3294</v>
+        <v>2808</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>29626</v>
+        <v>1466</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>21408</v>
+        <v>1324</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>51034</v>
+        <v>2789</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D21" s="7">
-        <v>6890</v>
+        <v>9580</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="H21" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I21" s="7">
-        <v>3422</v>
+        <v>5428</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="M21" s="7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N21" s="7">
-        <v>10312</v>
+        <v>15008</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>7452</v>
+        <v>644</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>9737</v>
+        <v>737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>17189</v>
+        <v>1381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,55 +3088,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7">
+        <v>12369</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="7">
+        <v>14</v>
+      </c>
+      <c r="I23" s="7">
+        <v>9618</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="7">
+        <v>33</v>
+      </c>
+      <c r="N23" s="7">
+        <v>21986</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7452</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="7">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7">
+        <v>9737</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" s="7">
+        <v>26</v>
+      </c>
+      <c r="N24" s="7">
+        <v>17189</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6890</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3422</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>15</v>
+      </c>
+      <c r="N25" s="7">
+        <v>10312</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7">
+        <v>45</v>
+      </c>
+      <c r="D26" s="7">
+        <v>29626</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>32</v>
+      </c>
+      <c r="I26" s="7">
+        <v>21408</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="7">
+        <v>77</v>
+      </c>
+      <c r="N26" s="7">
+        <v>51034</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2557</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>737</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M27" s="7">
+        <v>5</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3294</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>70</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>46525</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="7">
         <v>53</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>35304</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="7">
         <v>123</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>81829</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>46</v>
+      <c r="O28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2958,8 +3412,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A7E568-8AB8-4096-BA85-2088A316C27E}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BFB7EE-A5C3-47D2-B74A-354CDC276BDD}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2975,7 +3429,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3076,202 +3530,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>675</v>
+        <v>1986</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5810</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="7">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1809</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M4" s="7">
-        <v>4</v>
-      </c>
       <c r="N4" s="7">
-        <v>2485</v>
+        <v>7795</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>10300</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>3795</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>14095</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>7224</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>3795</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>11019</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>7093</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>6480</v>
+        <v>1107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>13573</v>
+        <v>1107</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,255 +3734,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>18068</v>
+        <v>9210</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>12084</v>
+        <v>10712</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N8" s="7">
-        <v>30152</v>
+        <v>19922</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>2608</v>
+        <v>11970</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>9533</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="N9" s="7">
-        <v>2608</v>
+        <v>21503</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>9933</v>
+        <v>2162</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>11097</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>21030</v>
+        <v>2162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11496</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="7">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8234</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M11" s="7">
         <v>28</v>
       </c>
-      <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2162</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>930</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
       <c r="N11" s="7">
-        <v>3093</v>
+        <v>19730</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>7558</v>
+        <v>2610</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>11157</v>
+        <v>702</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="M12" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>18715</v>
+        <v>3312</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,255 +3991,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>22262</v>
+        <v>28238</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>23184</v>
+        <v>18470</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>45446</v>
+        <v>46707</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>2405</v>
+        <v>1386</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>1284</v>
+        <v>2949</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>3689</v>
+        <v>4335</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>21538</v>
+        <v>1718</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>10511</v>
+        <v>930</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="M15" s="7">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="N15" s="7">
-        <v>32049</v>
+        <v>2648</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>5196</v>
+        <v>7901</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>1306</v>
+        <v>6289</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>6502</v>
+        <v>14189</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>3907</v>
+        <v>1453</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>3344</v>
+        <v>609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>7251</v>
+        <v>2062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,255 +4248,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>33047</v>
+        <v>12458</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>16445</v>
+        <v>10777</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N18" s="7">
-        <v>49492</v>
+        <v>23234</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>5689</v>
+        <v>3216</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>3093</v>
+        <v>2689</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>8782</v>
+        <v>5904</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>41772</v>
+        <v>3479</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>25402</v>
+        <v>1306</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="N20" s="7">
-        <v>67174</v>
+        <v>4785</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D21" s="7">
-        <v>7359</v>
+        <v>15151</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I21" s="7">
-        <v>2236</v>
+        <v>7084</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="M21" s="7">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N21" s="7">
-        <v>9595</v>
+        <v>22236</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1626</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="7">
-        <v>28</v>
-      </c>
-      <c r="D22" s="7">
-        <v>18558</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H22" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>20980</v>
+        <v>675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>39538</v>
+        <v>2301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,55 +4505,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>35</v>
+      </c>
+      <c r="D23" s="7">
+        <v>23472</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="7">
+        <v>17</v>
+      </c>
+      <c r="I23" s="7">
+        <v>11754</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="7">
+        <v>52</v>
+      </c>
+      <c r="N23" s="7">
+        <v>35226</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7">
+        <v>18558</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H24" s="7">
+        <v>30</v>
+      </c>
+      <c r="I24" s="7">
+        <v>20980</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M24" s="7">
+        <v>58</v>
+      </c>
+      <c r="N24" s="7">
+        <v>39538</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7359</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2236</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" s="7">
+        <v>14</v>
+      </c>
+      <c r="N25" s="7">
+        <v>9595</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7">
+        <v>59</v>
+      </c>
+      <c r="D26" s="7">
+        <v>41772</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H26" s="7">
+        <v>37</v>
+      </c>
+      <c r="I26" s="7">
+        <v>25402</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M26" s="7">
+        <v>96</v>
+      </c>
+      <c r="N26" s="7">
+        <v>67174</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="7">
+        <v>7</v>
+      </c>
+      <c r="D27" s="7">
+        <v>5689</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3093</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M27" s="7">
+        <v>12</v>
+      </c>
+      <c r="N27" s="7">
+        <v>8782</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>105</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>73377</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="7">
         <v>75</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>51712</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="7">
         <v>180</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>125089</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>46</v>
+      <c r="O28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4112,8 +4829,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7F5B3F-24D1-4A66-8593-9ABA5603BB6B}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A51DB9A-D443-4843-A7B5-71BAF9F2B7A9}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4129,7 +4846,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4230,19 +4947,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1283</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4251,151 +4968,151 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1283</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>5945</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2791</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>8736</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>634</v>
+        <v>1456</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1119</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>634</v>
+        <v>2575</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>1284</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4404,28 +5121,28 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>1284</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,54 +5151,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>7862</v>
+        <v>2739</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>2791</v>
+        <v>1119</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>10653</v>
+        <v>3858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4490,199 +5207,199 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>626</v>
+        <v>737</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>1096</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>297</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>1722</v>
+        <v>737</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>7116</v>
+        <v>1611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>7726</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>14842</v>
+        <v>1611</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>977</v>
+        <v>8405</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>309</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>5867</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N11" s="7">
-        <v>977</v>
+        <v>14272</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>2035</v>
+        <v>626</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>314</v>
+        <v>158</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>315</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>2035</v>
+        <v>1105</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>318</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,255 +5408,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>10754</v>
+        <v>11379</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>8822</v>
+        <v>6346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>19576</v>
+        <v>17724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1047</v>
+        <v>1915</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>1692</v>
+        <v>1915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>17332</v>
+        <v>739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>326</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>10373</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="M15" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>27704</v>
+        <v>739</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>739</v>
+        <v>8490</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>5648</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>739</v>
+        <v>14138</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>2991</v>
+        <v>1047</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>738</v>
+        <v>617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>3729</v>
+        <v>1664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,255 +5665,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>22109</v>
+        <v>12191</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>11756</v>
+        <v>6265</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N18" s="7">
-        <v>33864</v>
+        <v>18456</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>1673</v>
+        <v>2374</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1740</v>
+        <v>738</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>3413</v>
+        <v>3112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>30392</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>12</v>
       </c>
       <c r="H20" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>20890</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>353</v>
+        <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>354</v>
+        <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>355</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>51282</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>357</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D21" s="7">
-        <v>2350</v>
+        <v>12041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>8256</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="M21" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N21" s="7">
-        <v>2350</v>
+        <v>20297</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>6309</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>366</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>12</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>738</v>
+        <v>644</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>7048</v>
+        <v>644</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>371</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,55 +5922,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7">
+        <v>14415</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="7">
+        <v>14</v>
+      </c>
+      <c r="I23" s="7">
+        <v>9639</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="7">
+        <v>34</v>
+      </c>
+      <c r="N23" s="7">
+        <v>24054</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6309</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>738</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M24" s="7">
+        <v>10</v>
+      </c>
+      <c r="N24" s="7">
+        <v>7048</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2350</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2350</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7">
+        <v>44</v>
+      </c>
+      <c r="D26" s="7">
+        <v>30392</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H26" s="7">
+        <v>32</v>
+      </c>
+      <c r="I26" s="7">
+        <v>20890</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M26" s="7">
+        <v>76</v>
+      </c>
+      <c r="N26" s="7">
+        <v>51282</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1673</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1740</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M27" s="7">
+        <v>5</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3413</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>58</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>40724</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="7">
         <v>36</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>23369</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="7">
         <v>94</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>64093</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>46</v>
+      <c r="O28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5266,8 +6246,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDC01B3-0D2E-4666-A27D-A365C19EF678}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136977FE-00A0-4BFB-B31F-DC7785924896}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5283,7 +6263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5384,19 +6364,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>374</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5405,151 +6385,151 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>376</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>377</v>
+        <v>21</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1856</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>379</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>380</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>978</v>
+        <v>406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>2835</v>
+        <v>406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>426</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>406</v>
+        <v>1026</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5558,28 +6538,28 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>376</v>
+        <v>302</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>430</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,54 +6568,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1268</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>753</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="7">
         <v>4</v>
       </c>
-      <c r="D8" s="7">
-        <v>2445</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1384</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
       <c r="N8" s="7">
-        <v>3830</v>
+        <v>2021</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5647,151 +6627,151 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>428</v>
+        <v>1455</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>257</v>
+        <v>434</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>428</v>
+        <v>1455</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>6186</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>393</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>432</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>3342</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>395</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>396</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>397</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>9528</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>398</v>
+        <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>399</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>400</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>2309</v>
+        <v>5026</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>401</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>437</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>402</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1898</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>2309</v>
+        <v>6924</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -5800,43 +6780,43 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>1455</v>
+        <v>428</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>1455</v>
+        <v>428</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,255 +6825,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>8495</v>
+        <v>5026</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>5226</v>
+        <v>3782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>13721</v>
+        <v>8808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1238</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1753</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>10266</v>
+        <v>2309</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>415</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>282</v>
+        <v>451</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>7611</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>416</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="M15" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>17877</v>
+        <v>2309</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>419</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>5178</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>455</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>421</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>847</v>
+        <v>4308</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>847</v>
+        <v>9485</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>425</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>895</v>
+        <v>642</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1583</v>
+        <v>642</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,255 +7082,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>11469</v>
+        <v>7487</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>10591</v>
+        <v>4950</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>22060</v>
+        <v>12436</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>688</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>894</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="M19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
-        <v>1105</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1667</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
       <c r="N19" s="7">
-        <v>2772</v>
+        <v>1583</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>436</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>437</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>18308</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>438</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>439</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>11932</v>
+        <v>847</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>442</v>
+        <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="M20" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>30240</v>
+        <v>847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7">
-        <v>2309</v>
+        <v>7426</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>474</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>448</v>
+        <v>321</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I21" s="7">
-        <v>1252</v>
+        <v>5378</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>208</v>
+        <v>475</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>476</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="M21" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N21" s="7">
-        <v>3561</v>
+        <v>12804</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>368</v>
+        <v>479</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>688</v>
+        <v>515</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>2350</v>
+        <v>597</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>3038</v>
+        <v>1112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>264</v>
+        <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,55 +7339,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7">
+        <v>8629</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="7">
+        <v>11</v>
+      </c>
+      <c r="I23" s="7">
+        <v>7716</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="7">
+        <v>22</v>
+      </c>
+      <c r="N23" s="7">
+        <v>16345</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>688</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2350</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="M24" s="7">
+        <v>4</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3038</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2309</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1252</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3561</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7">
+        <v>24</v>
+      </c>
+      <c r="D26" s="7">
+        <v>18308</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="H26" s="7">
+        <v>18</v>
+      </c>
+      <c r="I26" s="7">
+        <v>11932</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="M26" s="7">
+        <v>42</v>
+      </c>
+      <c r="N26" s="7">
+        <v>30240</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1105</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1667</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="M27" s="7">
+        <v>5</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2772</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>29</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>22410</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="7">
         <v>26</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>17201</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="7">
         <v>55</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>39611</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>46</v>
+      <c r="O28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP11CS1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11CS1-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D61D883-899D-427D-9244-EFB8AE7C88B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D91CF36-38B0-4F8A-B0D2-8CE240976FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2FE9D4F-51A2-426D-AB7F-EE832EB0A675}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B667021-8620-486B-A018-CA986269053D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="514">
   <si>
     <t>Menores según consecuencia del accidente en 2007 (Tasa respuesta: 5,85%)</t>
   </si>
@@ -77,1513 +77,1510 @@
     <t>35,69%</t>
   </si>
   <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>Consultar a un médico o enfermera</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>Acudir a un servicio de urgencias</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>Ser ingresado en un hospital o clínica</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2012 (Tasa respuesta: 8,58%)</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2016 (Tasa respuesta: 4,42%)</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>Menores según consecuencia del accidente en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>Consultar a un médico o enfermera</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>Acudir a un servicio de urgencias</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>Ser ingresado en un hospital o clínica</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2012 (Tasa respuesta: 8,58%)</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2015 (Tasa respuesta: 4,42%)</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>Menores según consecuencia del accidente en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>28,93%</t>
+    <t>28,44%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>30,22%</t>
+    <t>28,75%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>23,28%</t>
   </si>
   <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>2,48%</t>
+    <t>14,77%</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB70CC3-B7E8-4746-B73D-860BC40020BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7815B309-A191-408A-B079-36D0BA9885C3}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2550,7 +2547,7 @@
         <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2565,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,7 +2618,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2633,13 +2630,13 @@
         <v>813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2648,13 +2645,13 @@
         <v>1971</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2663,13 +2660,13 @@
         <v>2784</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2681,13 @@
         <v>1224</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -2699,13 +2696,13 @@
         <v>806</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -2714,13 +2711,13 @@
         <v>2030</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2732,13 @@
         <v>7598</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2750,13 +2747,13 @@
         <v>6017</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -2765,13 +2762,13 @@
         <v>13615</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2783,13 @@
         <v>1425</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2807,7 +2804,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2816,13 +2813,13 @@
         <v>1425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,7 +2875,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2890,13 +2887,13 @@
         <v>680</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2905,13 +2902,13 @@
         <v>2129</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2920,13 +2917,13 @@
         <v>2808</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2938,13 @@
         <v>1466</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2956,13 +2953,13 @@
         <v>1324</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2971,13 +2968,13 @@
         <v>2789</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2989,13 @@
         <v>9580</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -3007,13 +3004,13 @@
         <v>5428</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -3022,13 +3019,13 @@
         <v>15008</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3040,13 @@
         <v>644</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3058,13 +3055,13 @@
         <v>737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3073,13 +3070,13 @@
         <v>1381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3144,13 @@
         <v>7452</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -3162,10 +3159,10 @@
         <v>9737</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>137</v>
@@ -3270,7 +3267,7 @@
         <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>77</v>
@@ -3279,13 +3276,13 @@
         <v>51034</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3297,13 @@
         <v>2557</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -3315,13 +3312,13 @@
         <v>737</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -3330,13 +3327,13 @@
         <v>3294</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3389,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3412,7 +3409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BFB7EE-A5C3-47D2-B74A-354CDC276BDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AFDC2C-4AC1-45D8-A273-FB5231795250}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3429,7 +3426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3536,10 +3533,10 @@
         <v>1986</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>170</v>
@@ -3653,13 +3650,13 @@
         <v>3795</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -3668,13 +3665,13 @@
         <v>11019</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3701,13 @@
         <v>1107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3719,13 +3716,13 @@
         <v>1107</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3790,13 @@
         <v>11970</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -3808,13 +3805,13 @@
         <v>9533</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -3823,13 +3820,13 @@
         <v>21503</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3841,13 @@
         <v>2162</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3865,7 +3862,7 @@
         <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3874,13 +3871,13 @@
         <v>2162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3892,13 @@
         <v>11496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -3910,13 +3907,13 @@
         <v>8234</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -3925,13 +3922,13 @@
         <v>19730</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3943,13 @@
         <v>2610</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3961,13 +3958,13 @@
         <v>702</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -3976,13 +3973,13 @@
         <v>3312</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,7 +4035,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4050,13 +4047,13 @@
         <v>1386</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -4065,13 +4062,13 @@
         <v>2949</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -4080,13 +4077,13 @@
         <v>4335</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4098,13 @@
         <v>1718</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -4116,13 +4113,13 @@
         <v>930</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -4131,13 +4128,13 @@
         <v>2648</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4149,13 @@
         <v>7901</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4167,13 +4164,13 @@
         <v>6289</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4182,13 +4179,13 @@
         <v>14189</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4200,13 @@
         <v>1453</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4218,13 +4215,13 @@
         <v>609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4233,13 +4230,13 @@
         <v>2062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,7 +4292,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4307,13 +4304,13 @@
         <v>3216</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4322,13 +4319,13 @@
         <v>2689</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -4337,13 +4334,13 @@
         <v>5904</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4355,13 @@
         <v>3479</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4373,13 +4370,13 @@
         <v>1306</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4388,13 +4385,13 @@
         <v>4785</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4406,13 @@
         <v>15151</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -4424,13 +4421,13 @@
         <v>7084</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -4439,13 +4436,13 @@
         <v>22236</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,7 +4463,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4475,13 +4472,13 @@
         <v>675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -4490,13 +4487,13 @@
         <v>2301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4561,13 @@
         <v>18558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -4579,13 +4576,13 @@
         <v>20980</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M24" s="7">
         <v>58</v>
@@ -4594,13 +4591,13 @@
         <v>39538</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4612,13 @@
         <v>7359</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4630,13 +4627,13 @@
         <v>2236</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -4645,13 +4642,13 @@
         <v>9595</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4663,13 @@
         <v>41772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -4681,13 +4678,13 @@
         <v>25402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>96</v>
@@ -4696,13 +4693,13 @@
         <v>67174</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4714,13 @@
         <v>5689</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -4732,13 +4729,13 @@
         <v>3093</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -4747,13 +4744,13 @@
         <v>8782</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>110</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4806,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4829,7 +4826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A51DB9A-D443-4843-A7B5-71BAF9F2B7A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20E6029-2EBE-4684-AEFA-831C4238213F}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4846,7 +4843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4953,13 +4950,13 @@
         <v>1283</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4974,7 +4971,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4983,13 +4980,13 @@
         <v>1283</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,7 +5007,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5025,7 +5022,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5055,13 +5052,13 @@
         <v>1456</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5070,10 +5067,10 @@
         <v>1119</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>41</v>
@@ -5085,13 +5082,13 @@
         <v>2575</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,7 +5109,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5127,7 +5124,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5210,13 +5207,13 @@
         <v>737</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>330</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5231,7 +5228,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -5240,13 +5237,13 @@
         <v>737</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5258,13 @@
         <v>1611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5282,7 +5279,7 @@
         <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5291,13 +5288,13 @@
         <v>1611</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5309,13 @@
         <v>8405</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5327,13 +5324,13 @@
         <v>5867</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5342,13 +5339,13 @@
         <v>14272</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5360,13 @@
         <v>626</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5378,13 +5375,13 @@
         <v>479</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -5393,13 +5390,13 @@
         <v>1105</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,7 +5452,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5467,13 +5464,13 @@
         <v>1915</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5488,7 +5485,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5497,13 +5494,13 @@
         <v>1915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5515,13 @@
         <v>739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>356</v>
+        <v>270</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5539,7 +5536,7 @@
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5548,13 +5545,13 @@
         <v>739</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5566,13 @@
         <v>8490</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5584,13 +5581,13 @@
         <v>5648</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5599,13 +5596,13 @@
         <v>14138</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5617,13 @@
         <v>1047</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5635,13 +5632,13 @@
         <v>617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -5650,13 +5647,13 @@
         <v>1664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,7 +5709,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5724,13 +5721,13 @@
         <v>2374</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5739,13 +5736,13 @@
         <v>738</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5754,13 +5751,13 @@
         <v>3112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,7 +5778,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5811,7 +5808,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5823,13 @@
         <v>12041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -5844,10 +5841,10 @@
         <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -5856,13 +5853,13 @@
         <v>20297</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,7 +5880,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5892,13 +5889,13 @@
         <v>644</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -5907,13 +5904,13 @@
         <v>644</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>85</v>
+        <v>393</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>391</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5978,13 @@
         <v>6309</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5996,13 +5993,13 @@
         <v>738</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>379</v>
+        <v>109</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -6011,13 +6008,13 @@
         <v>7048</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>398</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6029,13 @@
         <v>2350</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6053,7 +6050,7 @@
         <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -6062,13 +6059,13 @@
         <v>2350</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6080,13 @@
         <v>30392</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -6098,13 +6095,13 @@
         <v>20890</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M26" s="7">
         <v>76</v>
@@ -6113,13 +6110,13 @@
         <v>51282</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6131,13 @@
         <v>1673</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -6149,13 +6146,13 @@
         <v>1740</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -6164,13 +6161,13 @@
         <v>3413</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,7 +6223,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6246,7 +6243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136977FE-00A0-4BFB-B31F-DC7785924896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF925536-D72D-421B-AA4C-C34A15509443}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6263,7 +6260,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6376,7 +6373,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6391,7 +6388,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6406,7 +6403,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,7 +6424,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6436,13 +6433,13 @@
         <v>406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6451,13 +6448,13 @@
         <v>406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,13 +6469,13 @@
         <v>678</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6487,13 +6484,13 @@
         <v>347</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6502,13 +6499,13 @@
         <v>1026</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6520,13 @@
         <v>590</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6544,7 +6541,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6553,13 +6550,13 @@
         <v>590</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,7 +6630,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6642,7 +6639,7 @@
         <v>1455</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>433</v>
+        <v>74</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
@@ -6684,7 +6681,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6714,7 +6711,7 @@
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,7 +6726,7 @@
         <v>5026</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>437</v>
@@ -6786,7 +6783,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -6872,7 +6869,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6905,7 +6902,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6956,7 +6953,7 @@
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -6989,10 +6986,10 @@
         <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -7001,13 +6998,13 @@
         <v>4308</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>457</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -7016,13 +7013,13 @@
         <v>9485</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7052,13 +7049,13 @@
         <v>642</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -7067,13 +7064,13 @@
         <v>642</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,7 +7126,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7141,13 +7138,13 @@
         <v>688</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7156,13 +7153,13 @@
         <v>894</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -7171,13 +7168,13 @@
         <v>1583</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,7 +7246,7 @@
         <v>474</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -7416,10 +7413,10 @@
         <v>489</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7428,13 +7425,13 @@
         <v>3038</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7446,13 @@
         <v>2309</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7464,13 +7461,13 @@
         <v>1252</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -7479,10 +7476,10 @@
         <v>3561</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>498</v>
+        <v>318</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>499</v>
@@ -7569,10 +7566,10 @@
         <v>144</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -7581,13 +7578,13 @@
         <v>2772</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,7 +7640,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
